--- a/FileInput/Controller.xlsx
+++ b/FileInput/Controller.xlsx
@@ -9,10 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
+    <sheet name="ApplicationLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="StockItems" sheetId="3" r:id="rId3"/>
+    <sheet name="Suppliers" sheetId="4" r:id="rId4"/>
+    <sheet name="Customers" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="86">
   <si>
     <t>Description</t>
   </si>
@@ -129,13 +133,166 @@
   </si>
   <si>
     <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>ModuleName</t>
+  </si>
+  <si>
+    <t>ExecutionStatus</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>ApplicationLogin</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>Suppliers</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>Cusstomers</t>
+  </si>
+  <si>
+    <t>StockItems</t>
+  </si>
+  <si>
+    <t>Wait for stock item link</t>
+  </si>
+  <si>
+    <t>//a[text()='Stock Items ']</t>
+  </si>
+  <si>
+    <t>Click Stock items link</t>
+  </si>
+  <si>
+    <t>Wait for Add Icon</t>
+  </si>
+  <si>
+    <t>(//span[@data-caption='Add'])[1]</t>
+  </si>
+  <si>
+    <t>Click Add icon</t>
+  </si>
+  <si>
+    <t>Wait for Category Listbox</t>
+  </si>
+  <si>
+    <t>x_Category</t>
+  </si>
+  <si>
+    <t>Select item in Category</t>
+  </si>
+  <si>
+    <t>dropDownAction</t>
+  </si>
+  <si>
+    <t>//select[@id='x_Category']</t>
+  </si>
+  <si>
+    <t>Seelct item in Supplier Number</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>Capture Stock number</t>
+  </si>
+  <si>
+    <t>captureStock</t>
+  </si>
+  <si>
+    <t>x_Stock_Number</t>
+  </si>
+  <si>
+    <t>Enter Stcok name</t>
+  </si>
+  <si>
+    <t>x_Stock_Name</t>
+  </si>
+  <si>
+    <t>Puzzels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select item in Unit Of Measurement </t>
+  </si>
+  <si>
+    <t>x_Unit_Of_Measurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Purchasing Price </t>
+  </si>
+  <si>
+    <t>x_Purchasing_Price</t>
+  </si>
+  <si>
+    <t>Enter Selling Price</t>
+  </si>
+  <si>
+    <t>x_Selling_Price</t>
+  </si>
+  <si>
+    <t>Enter notes</t>
+  </si>
+  <si>
+    <t>x_Notes</t>
+  </si>
+  <si>
+    <t>Selling Puzzles</t>
+  </si>
+  <si>
+    <t>Click add button</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>Wait for Confirm ok button</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='OK!']</t>
+  </si>
+  <si>
+    <t>Click Confirm ok button</t>
+  </si>
+  <si>
+    <t>Wait for alert ok</t>
+  </si>
+  <si>
+    <t>(//button[starts-with(text(),'OK')])[6]</t>
+  </si>
+  <si>
+    <t>Click Alert ok</t>
+  </si>
+  <si>
+    <t>Verify Stock Number</t>
+  </si>
+  <si>
+    <t>stockTable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +311,22 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -201,10 +374,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,20 +664,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -704,4 +966,593 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="6">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="8">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="8">
+        <v>10</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="8">
+        <v>10</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="7">
+        <v>300000</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="7">
+        <v>500000</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="7">
+        <v>10</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="7">
+        <v>10</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FileInput/Controller.xlsx
+++ b/FileInput/Controller.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="142">
   <si>
     <t>Description</t>
   </si>
@@ -156,143 +156,311 @@
     <t>TC002</t>
   </si>
   <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>Suppliers</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>StockItems</t>
+  </si>
+  <si>
+    <t>Wait for stock item link</t>
+  </si>
+  <si>
+    <t>//a[text()='Stock Items ']</t>
+  </si>
+  <si>
+    <t>Click Stock items link</t>
+  </si>
+  <si>
+    <t>Wait for Add Icon</t>
+  </si>
+  <si>
+    <t>(//span[@data-caption='Add'])[1]</t>
+  </si>
+  <si>
+    <t>Click Add icon</t>
+  </si>
+  <si>
+    <t>Wait for Category Listbox</t>
+  </si>
+  <si>
+    <t>x_Category</t>
+  </si>
+  <si>
+    <t>Select item in Category</t>
+  </si>
+  <si>
+    <t>dropDownAction</t>
+  </si>
+  <si>
+    <t>//select[@id='x_Category']</t>
+  </si>
+  <si>
+    <t>Seelct item in Supplier Number</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>Capture Stock number</t>
+  </si>
+  <si>
+    <t>captureStock</t>
+  </si>
+  <si>
+    <t>x_Stock_Number</t>
+  </si>
+  <si>
+    <t>Enter Stcok name</t>
+  </si>
+  <si>
+    <t>x_Stock_Name</t>
+  </si>
+  <si>
+    <t>Puzzels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select item in Unit Of Measurement </t>
+  </si>
+  <si>
+    <t>x_Unit_Of_Measurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Purchasing Price </t>
+  </si>
+  <si>
+    <t>x_Purchasing_Price</t>
+  </si>
+  <si>
+    <t>Enter Selling Price</t>
+  </si>
+  <si>
+    <t>x_Selling_Price</t>
+  </si>
+  <si>
+    <t>Enter notes</t>
+  </si>
+  <si>
+    <t>x_Notes</t>
+  </si>
+  <si>
+    <t>Selling Puzzles</t>
+  </si>
+  <si>
+    <t>Click add button</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>Wait for Confirm ok button</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='OK!']</t>
+  </si>
+  <si>
+    <t>Click Confirm ok button</t>
+  </si>
+  <si>
+    <t>Wait for alert ok</t>
+  </si>
+  <si>
+    <t>(//button[starts-with(text(),'OK')])[6]</t>
+  </si>
+  <si>
+    <t>Click Alert ok</t>
+  </si>
+  <si>
+    <t>Verify Stock Number</t>
+  </si>
+  <si>
+    <t>stockTable</t>
+  </si>
+  <si>
+    <t>Wait for Supplier link</t>
+  </si>
+  <si>
+    <t>(//a[starts-with(text(),'Suppliers')])[2]</t>
+  </si>
+  <si>
+    <t>Click Supplier link</t>
+  </si>
+  <si>
+    <t>Wait for supplier number</t>
+  </si>
+  <si>
+    <t>capture supplier number</t>
+  </si>
+  <si>
+    <t>capturesup</t>
+  </si>
+  <si>
+    <t>Enter supplier name</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Name']</t>
+  </si>
+  <si>
+    <t>Akhilesh</t>
+  </si>
+  <si>
+    <t>Enter address</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ameerpet,201,flat,beside satyam </t>
+  </si>
+  <si>
+    <t>Enter City</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Enter Contact person</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>QedgeTech</t>
+  </si>
+  <si>
+    <t>Enter phone number</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>6547896547</t>
+  </si>
+  <si>
+    <t>Enter Email</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>Test@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter Mobile number</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>6214789545</t>
+  </si>
+  <si>
+    <t>Enter Notes</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Iam Supplying lg goods</t>
+  </si>
+  <si>
+    <t>Click Add button</t>
+  </si>
+  <si>
+    <t>Verify Supplier number</t>
+  </si>
+  <si>
+    <t>suppliertable</t>
+  </si>
+  <si>
+    <t>Wait for Customer link</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(),'Customers')])[2]</t>
+  </si>
+  <si>
+    <t>Click Customer link</t>
+  </si>
+  <si>
+    <t>Wait for Customer number</t>
+  </si>
+  <si>
+    <t>x_Customer_Number</t>
+  </si>
+  <si>
+    <t>capture Customer number</t>
+  </si>
+  <si>
+    <t>capturecus</t>
+  </si>
+  <si>
+    <t>Enter Customer name</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Customer_Name']</t>
+  </si>
+  <si>
+    <t>Ranguandsita</t>
+  </si>
+  <si>
+    <t>madanapalli</t>
+  </si>
+  <si>
+    <t>Anantapur</t>
+  </si>
+  <si>
+    <t>Qedgetech</t>
+  </si>
+  <si>
+    <t>3214569832</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>65547789541</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Iam Customer</t>
+  </si>
+  <si>
+    <t>Verify Customer number</t>
+  </si>
+  <si>
+    <t>customertable</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t>Suppliers</t>
-  </si>
-  <si>
-    <t>TC004</t>
-  </si>
-  <si>
-    <t>Cusstomers</t>
-  </si>
-  <si>
-    <t>StockItems</t>
-  </si>
-  <si>
-    <t>Wait for stock item link</t>
-  </si>
-  <si>
-    <t>//a[text()='Stock Items ']</t>
-  </si>
-  <si>
-    <t>Click Stock items link</t>
-  </si>
-  <si>
-    <t>Wait for Add Icon</t>
-  </si>
-  <si>
-    <t>(//span[@data-caption='Add'])[1]</t>
-  </si>
-  <si>
-    <t>Click Add icon</t>
-  </si>
-  <si>
-    <t>Wait for Category Listbox</t>
-  </si>
-  <si>
-    <t>x_Category</t>
-  </si>
-  <si>
-    <t>Select item in Category</t>
-  </si>
-  <si>
-    <t>dropDownAction</t>
-  </si>
-  <si>
-    <t>//select[@id='x_Category']</t>
-  </si>
-  <si>
-    <t>Seelct item in Supplier Number</t>
-  </si>
-  <si>
-    <t>x_Supplier_Number</t>
-  </si>
-  <si>
-    <t>Capture Stock number</t>
-  </si>
-  <si>
-    <t>captureStock</t>
-  </si>
-  <si>
-    <t>x_Stock_Number</t>
-  </si>
-  <si>
-    <t>Enter Stcok name</t>
-  </si>
-  <si>
-    <t>x_Stock_Name</t>
-  </si>
-  <si>
-    <t>Puzzels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select item in Unit Of Measurement </t>
-  </si>
-  <si>
-    <t>x_Unit_Of_Measurement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Purchasing Price </t>
-  </si>
-  <si>
-    <t>x_Purchasing_Price</t>
-  </si>
-  <si>
-    <t>Enter Selling Price</t>
-  </si>
-  <si>
-    <t>x_Selling_Price</t>
-  </si>
-  <si>
-    <t>Enter notes</t>
-  </si>
-  <si>
-    <t>x_Notes</t>
-  </si>
-  <si>
-    <t>Selling Puzzles</t>
-  </si>
-  <si>
-    <t>Click add button</t>
-  </si>
-  <si>
-    <t>btnAction</t>
-  </si>
-  <si>
-    <t>Wait for Confirm ok button</t>
-  </si>
-  <si>
-    <t>//button[normalize-space()='OK!']</t>
-  </si>
-  <si>
-    <t>Click Confirm ok button</t>
-  </si>
-  <si>
-    <t>Wait for alert ok</t>
-  </si>
-  <si>
-    <t>(//button[starts-with(text(),'OK')])[6]</t>
-  </si>
-  <si>
-    <t>Click Alert ok</t>
-  </si>
-  <si>
-    <t>Verify Stock Number</t>
-  </si>
-  <si>
-    <t>stockTable</t>
+    <t>Customers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +496,14 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -371,10 +547,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -384,8 +561,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -667,7 +857,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +890,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -709,34 +899,34 @@
         <v>41</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -1152,7 +1342,7 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>12</v>
@@ -1161,7 +1351,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="8">
         <v>10</v>
@@ -1170,7 +1360,7 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>25</v>
@@ -1179,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>8</v>
@@ -1188,7 +1378,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>12</v>
@@ -1197,7 +1387,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" s="8">
         <v>10</v>
@@ -1206,7 +1396,7 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>25</v>
@@ -1215,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>8</v>
@@ -1224,7 +1414,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>12</v>
@@ -1233,7 +1423,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="8">
         <v>10</v>
@@ -1242,16 +1432,16 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="E15" s="7">
         <v>1</v>
@@ -1260,16 +1450,16 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="8">
         <v>1</v>
@@ -1278,16 +1468,16 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>8</v>
@@ -1296,7 +1486,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>16</v>
@@ -1305,25 +1495,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E19" s="7">
         <v>1</v>
@@ -1332,7 +1522,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>16</v>
@@ -1341,7 +1531,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" s="7">
         <v>300000</v>
@@ -1350,7 +1540,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>16</v>
@@ -1359,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" s="7">
         <v>500000</v>
@@ -1368,7 +1558,7 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>16</v>
@@ -1377,16 +1567,16 @@
         <v>21</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>25</v>
@@ -1395,7 +1585,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>8</v>
@@ -1404,7 +1594,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>12</v>
@@ -1413,7 +1603,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" s="7">
         <v>10</v>
@@ -1422,7 +1612,7 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>25</v>
@@ -1431,7 +1621,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>8</v>
@@ -1440,7 +1630,7 @@
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>12</v>
@@ -1449,7 +1639,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E26" s="7">
         <v>10</v>
@@ -1458,7 +1648,7 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>25</v>
@@ -1467,7 +1657,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>8</v>
@@ -1476,10 +1666,10 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>8</v>
@@ -1535,24 +1725,1208 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="10">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="10">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="10">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="10">
+        <v>10</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="11">
+        <v>10</v>
+      </c>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="11">
+        <v>10</v>
+      </c>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="16">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="16">
+        <v>10</v>
+      </c>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="16">
+        <v>10</v>
+      </c>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="16">
+        <v>10</v>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="16">
+        <v>10</v>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="17">
+        <v>10</v>
+      </c>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="17">
+        <v>10</v>
+      </c>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="16"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>